--- a/ExcelSheets/News.xlsx
+++ b/ExcelSheets/News.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zizhensong/programming_projects/EventReminder/ExcelSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sambe\EventReminder\ExcelSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46B67F12-3B87-A64C-B033-373F83CF65E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B74B14E-2BB4-4FAD-A82D-3C59F94C4594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>category</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>us</t>
-  </si>
-  <si>
-    <t xml:space="preserve">country </t>
   </si>
   <si>
     <t>gb</t>
@@ -318,9 +315,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -328,20 +325,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -356,11 +353,13 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -368,25 +367,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>

--- a/ExcelSheets/News.xlsx
+++ b/ExcelSheets/News.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sambe\EventReminder\ExcelSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B74B14E-2BB4-4FAD-A82D-3C59F94C4594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED85D9CF-C83A-4EB7-B595-71F9DB31BF52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>category</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>basketball</t>
+  </si>
+  <si>
+    <t>countrys</t>
   </si>
 </sst>
 </file>
@@ -369,7 +372,7 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>

--- a/ExcelSheets/News.xlsx
+++ b/ExcelSheets/News.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sambe\EventReminder\ExcelSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED85D9CF-C83A-4EB7-B595-71F9DB31BF52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EB77DF-FD09-4335-A95F-DD9DAED1ED90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>category</t>
   </si>
@@ -50,10 +50,7 @@
     <t>page</t>
   </si>
   <si>
-    <t>basketball</t>
-  </si>
-  <si>
-    <t>countrys</t>
+    <t>golf</t>
   </si>
 </sst>
 </file>
@@ -316,7 +313,9 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -356,8 +355,8 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -372,7 +371,7 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
